--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/27/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/27/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9139139139139139</v>
+        <v>0.2047204720472047</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1527.527527527528</v>
+        <v>1702.810281028103</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05335335335335335</v>
+        <v>0.0225022502250225</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7977977977977978</v>
+        <v>0.7457745774577458</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>726.7267267267268</v>
+        <v>1055.035503550355</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.02202202202202</v>
+        <v>189.8289828982898</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>793.7937937937938</v>
+        <v>298.3321332133213</v>
       </c>
     </row>
   </sheetData>
